--- a/Booktestold.xlsx
+++ b/Booktestold.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Downloads\Nasala\Nasala\Offer_letter_generation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,68 +26,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
-    <t xml:space="preserve">ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/PC/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaditya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/PC/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aashish</t>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Old Salary</t>
+  </si>
+  <si>
+    <t>New Salary</t>
+  </si>
+  <si>
+    <t>Old Position</t>
+  </si>
+  <si>
+    <t>New Position</t>
+  </si>
+  <si>
+    <t>24/PC/30</t>
+  </si>
+  <si>
+    <t>24/PC/31</t>
   </si>
   <si>
     <t xml:space="preserve">old  </t>
   </si>
   <si>
-    <t xml:space="preserve">24/PC/32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aayush</t>
+    <t>24/PC/32</t>
   </si>
   <si>
     <t xml:space="preserve">new  </t>
   </si>
   <si>
-    <t xml:space="preserve">24/PC/33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/PC/34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit</t>
+    <t>24/PC/33</t>
+  </si>
+  <si>
+    <t>24/PC/34</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
+    <t>Aash</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Chenle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,32 +93,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -136,135 +120,119 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145f82"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e87331"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186c24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -296,7 +264,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -320,7 +288,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -380,28 +348,27 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,17 +388,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
         <v>112345</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -439,103 +406,98 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23456</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45678</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.5">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>23456</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>45678</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34568</v>
+      </c>
+      <c r="D4" s="1">
+        <v>67890</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.5">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34567</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56789</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5">
+      <c r="A6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>34568</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>67890</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>34567</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>56789</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>345678</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>349999</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="15.5">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="15.5">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="15.5">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Booktestold.xlsx
+++ b/Booktestold.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>ref</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Chenle</t>
+  </si>
+  <si>
+    <t>January 1,2024</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>January 1,2022</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Software Engineer I</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,11 +173,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,6 +196,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,15 +392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14"/>
+  <cols>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +423,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.5">
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -405,8 +450,17 @@
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.5">
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -423,8 +477,17 @@
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.5">
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -443,8 +506,17 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5">
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -463,8 +535,17 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5">
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -483,17 +564,26 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5">
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:9" ht="15.5">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
+    <row r="9" spans="1:9" ht="15.5">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5">
+    <row r="10" spans="1:9" ht="15.5">
       <c r="A10" s="2"/>
     </row>
   </sheetData>

--- a/Booktestold.xlsx
+++ b/Booktestold.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>ref</t>
   </si>
@@ -50,15 +50,9 @@
     <t>24/PC/31</t>
   </si>
   <si>
-    <t xml:space="preserve">old  </t>
-  </si>
-  <si>
     <t>24/PC/32</t>
   </si>
   <si>
-    <t xml:space="preserve">new  </t>
-  </si>
-  <si>
     <t>24/PC/33</t>
   </si>
   <si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>Software Engineer II</t>
   </si>
 </sst>
 </file>
@@ -168,15 +165,11 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -188,17 +181,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,19 +387,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14"/>
   <cols>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.9140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,22 +422,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5">
+    </row>
+    <row r="2" spans="1:10" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>112345</v>
@@ -446,26 +446,27 @@
       <c r="D2" s="1">
         <v>123456</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>23456</v>
@@ -473,26 +474,27 @@
       <c r="D3" s="1">
         <v>45678</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>34568</v>
@@ -500,28 +502,29 @@
       <c r="D4" s="1">
         <v>67890</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>34567</v>
@@ -529,28 +532,29 @@
       <c r="D5" s="1">
         <v>56789</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>345678</v>
@@ -558,33 +562,37 @@
       <c r="D6" s="1">
         <v>349999</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.5">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5">
-      <c r="A10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
